--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Position 4</t>
-  </si>
-  <si>
-    <t>Position 5</t>
   </si>
   <si>
     <t>Position 6</t>
@@ -619,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +671,7 @@
         <v>260</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D9" si="0">SUM(B4:C4)</f>
+        <f t="shared" ref="D4:D8" si="0">SUM(B4:C4)</f>
         <v>460</v>
       </c>
     </row>
@@ -713,61 +710,46 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>160</v>
       </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
         <v>160</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3">
-        <v>160</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
-        <f>SUM(B3:B9)</f>
-        <v>1060</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:D10" si="1">SUM(C3:C9)</f>
-        <v>1370</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="B9" s="11">
+        <f>SUM(B3:B8)</f>
+        <v>960</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" ref="C9:D9" si="1">SUM(C3:C8)</f>
+        <v>1210</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="1"/>
-        <v>2430</v>
+        <v>2170</v>
       </c>
     </row>
   </sheetData>
